--- a/docs/ER/fields.xlsx
+++ b/docs/ER/fields.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hresheff/git/Shiba--Hackathon/docs/ER/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41919374-8FDE-CD41-98BE-F447EBA14CA7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="206" yWindow="111" windowWidth="11177" windowHeight="3060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$FO$177</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -633,7 +639,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -729,6 +735,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -776,7 +785,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -809,9 +818,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -844,6 +870,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1019,23 +1062,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:FO177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.69140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3828125" customWidth="1"/>
-    <col min="8" max="8" width="13.4609375" customWidth="1"/>
-    <col min="9" max="9" width="16.07421875" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:171" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>169</v>
       </c>
@@ -1222,7 +1266,7 @@
       <c r="FN1" s="2"/>
       <c r="FO1" s="2"/>
     </row>
-    <row r="2" spans="1:171" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +1277,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:171" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:171" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>170</v>
       </c>
@@ -1250,7 +1294,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:171" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1262,7 +1306,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:171" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1274,7 +1318,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:171" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1289,7 +1333,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:171" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1304,7 +1348,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:171" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1324,7 +1368,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:171" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1341,7 +1385,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:171" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1355,7 +1399,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:171" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1363,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:171" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1371,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:171" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1385,7 +1429,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:171" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1393,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:171" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1401,7 +1445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:171" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1413,7 +1457,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1436,7 +1480,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1454,7 +1498,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -1469,7 +1513,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1484,7 +1528,7 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -1499,7 +1543,7 @@
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1514,7 +1558,7 @@
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1529,7 +1573,7 @@
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -1544,7 +1588,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -1554,7 +1598,7 @@
       <c r="C25" s="4"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -1574,7 +1618,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
@@ -1592,7 +1636,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -1610,7 +1654,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
@@ -1628,7 +1672,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1642,7 +1686,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
@@ -1665,7 +1709,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
@@ -1688,7 +1732,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
@@ -1700,7 +1744,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -1709,7 +1753,7 @@
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -1723,7 +1767,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -1741,7 +1785,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
@@ -1759,7 +1803,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
@@ -1771,27 +1815,27 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
@@ -1800,7 +1844,7 @@
       </c>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
@@ -1809,7 +1853,7 @@
       </c>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
@@ -1829,7 +1873,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
@@ -1839,7 +1883,7 @@
       <c r="C44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
@@ -1859,7 +1903,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>43</v>
       </c>
@@ -1869,7 +1913,7 @@
       <c r="C46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>44</v>
       </c>
@@ -1889,7 +1933,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>45</v>
       </c>
@@ -1899,7 +1943,7 @@
       <c r="C48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>46</v>
       </c>
@@ -1919,7 +1963,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>47</v>
       </c>
@@ -1929,7 +1973,7 @@
       <c r="C50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>48</v>
       </c>
@@ -1949,7 +1993,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>49</v>
       </c>
@@ -1969,7 +2013,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>50</v>
       </c>
@@ -1989,7 +2033,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>51</v>
       </c>
@@ -2009,7 +2053,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>52</v>
       </c>
@@ -2029,7 +2073,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>53</v>
       </c>
@@ -2049,7 +2093,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>54</v>
       </c>
@@ -2069,7 +2113,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>55</v>
       </c>
@@ -2089,7 +2133,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>56</v>
       </c>
@@ -2109,7 +2153,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>57</v>
       </c>
@@ -2129,7 +2173,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>58</v>
       </c>
@@ -2149,7 +2193,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>59</v>
       </c>
@@ -2158,7 +2202,7 @@
       </c>
       <c r="C62" s="4"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>60</v>
       </c>
@@ -2176,7 +2220,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>61</v>
       </c>
@@ -2188,7 +2232,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>62</v>
       </c>
@@ -2206,7 +2250,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>63</v>
       </c>
@@ -2218,7 +2262,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>64</v>
       </c>
@@ -2236,7 +2280,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>65</v>
       </c>
@@ -2248,7 +2292,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>66</v>
       </c>
@@ -2266,7 +2310,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>67</v>
       </c>
@@ -2278,7 +2322,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>68</v>
       </c>
@@ -2296,7 +2340,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>69</v>
       </c>
@@ -2308,7 +2352,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>70</v>
       </c>
@@ -2326,7 +2370,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>71</v>
       </c>
@@ -2338,7 +2382,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>72</v>
       </c>
@@ -2356,7 +2400,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>73</v>
       </c>
@@ -2368,7 +2412,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>74</v>
       </c>
@@ -2386,7 +2430,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>75</v>
       </c>
@@ -2398,7 +2442,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>76</v>
       </c>
@@ -2410,7 +2454,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>77</v>
       </c>
@@ -2422,7 +2466,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>78</v>
       </c>
@@ -2434,7 +2478,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>79</v>
       </c>
@@ -2446,7 +2490,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
@@ -2458,7 +2502,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>81</v>
       </c>
@@ -2470,7 +2514,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>82</v>
       </c>
@@ -2482,7 +2526,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>83</v>
       </c>
@@ -2494,7 +2538,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>84</v>
       </c>
@@ -2506,7 +2550,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>85</v>
       </c>
@@ -2518,7 +2562,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>86</v>
       </c>
@@ -2530,7 +2574,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>87</v>
       </c>
@@ -2542,7 +2586,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>88</v>
       </c>
@@ -2554,7 +2598,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>89</v>
       </c>
@@ -2566,7 +2610,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>90</v>
       </c>
@@ -2578,7 +2622,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>91</v>
       </c>
@@ -2590,7 +2634,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>92</v>
       </c>
@@ -2602,7 +2646,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>93</v>
       </c>
@@ -2614,7 +2658,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>94</v>
       </c>
@@ -2626,7 +2670,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>95</v>
       </c>
@@ -2638,7 +2682,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>96</v>
       </c>
@@ -2650,7 +2694,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>97</v>
       </c>
@@ -2662,7 +2706,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>98</v>
       </c>
@@ -2674,7 +2718,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>99</v>
       </c>
@@ -2686,7 +2730,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>100</v>
       </c>
@@ -2698,7 +2742,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>101</v>
       </c>
@@ -2710,7 +2754,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>102</v>
       </c>
@@ -2722,7 +2766,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>103</v>
       </c>
@@ -2734,7 +2778,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>104</v>
       </c>
@@ -2746,7 +2790,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>105</v>
       </c>
@@ -2758,7 +2802,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>106</v>
       </c>
@@ -2770,7 +2814,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>107</v>
       </c>
@@ -2782,7 +2826,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>108</v>
       </c>
@@ -2794,7 +2838,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>109</v>
       </c>
@@ -2806,7 +2850,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>110</v>
       </c>
@@ -2818,7 +2862,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>111</v>
       </c>
@@ -2830,7 +2874,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>112</v>
       </c>
@@ -2842,7 +2886,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>113</v>
       </c>
@@ -2854,7 +2898,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>114</v>
       </c>
@@ -2866,7 +2910,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>115</v>
       </c>
@@ -2878,7 +2922,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>116</v>
       </c>
@@ -2890,7 +2934,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>117</v>
       </c>
@@ -2902,7 +2946,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>118</v>
       </c>
@@ -2914,7 +2958,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>119</v>
       </c>
@@ -2926,7 +2970,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>120</v>
       </c>
@@ -2938,7 +2982,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>121</v>
       </c>
@@ -2950,7 +2994,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>122</v>
       </c>
@@ -2962,7 +3006,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>123</v>
       </c>
@@ -2974,7 +3018,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>124</v>
       </c>
@@ -2986,7 +3030,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>125</v>
       </c>
@@ -2998,7 +3042,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>126</v>
       </c>
@@ -3010,7 +3054,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>127</v>
       </c>
@@ -3022,7 +3066,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>128</v>
       </c>
@@ -3034,7 +3078,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>129</v>
       </c>
@@ -3046,7 +3090,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>130</v>
       </c>
@@ -3058,7 +3102,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>131</v>
       </c>
@@ -3070,7 +3114,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>132</v>
       </c>
@@ -3082,7 +3126,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>133</v>
       </c>
@@ -3094,7 +3138,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>134</v>
       </c>
@@ -3106,7 +3150,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>135</v>
       </c>
@@ -3118,7 +3162,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>136</v>
       </c>
@@ -3130,7 +3174,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>137</v>
       </c>
@@ -3142,7 +3186,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>138</v>
       </c>
@@ -3154,7 +3198,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>139</v>
       </c>
@@ -3166,7 +3210,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>140</v>
       </c>
@@ -3178,7 +3222,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>141</v>
       </c>
@@ -3190,7 +3234,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>142</v>
       </c>
@@ -3202,7 +3246,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>143</v>
       </c>
@@ -3214,7 +3258,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>144</v>
       </c>
@@ -3226,7 +3270,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>145</v>
       </c>
@@ -3238,7 +3282,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>146</v>
       </c>
@@ -3250,7 +3294,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>147</v>
       </c>
@@ -3262,7 +3306,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>148</v>
       </c>
@@ -3274,7 +3318,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>149</v>
       </c>
@@ -3286,7 +3330,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>150</v>
       </c>
@@ -3298,7 +3342,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>151</v>
       </c>
@@ -3310,7 +3354,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>152</v>
       </c>
@@ -3322,7 +3366,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>153</v>
       </c>
@@ -3334,7 +3378,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>154</v>
       </c>
@@ -3346,7 +3390,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>155</v>
       </c>
@@ -3358,7 +3402,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>156</v>
       </c>
@@ -3370,7 +3414,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>157</v>
       </c>
@@ -3382,7 +3426,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>158</v>
       </c>
@@ -3394,7 +3438,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>159</v>
       </c>
@@ -3406,7 +3450,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>160</v>
       </c>
@@ -3418,7 +3462,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>161</v>
       </c>
@@ -3430,7 +3474,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>162</v>
       </c>
@@ -3442,7 +3486,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>163</v>
       </c>
@@ -3454,7 +3498,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>164</v>
       </c>
@@ -3466,7 +3510,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>165</v>
       </c>
@@ -3478,7 +3522,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>166</v>
       </c>
@@ -3490,7 +3534,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>167</v>
       </c>
@@ -3502,7 +3546,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>168</v>
       </c>
@@ -3514,7 +3558,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>186</v>
       </c>
@@ -3525,7 +3569,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>181</v>
       </c>
@@ -3536,7 +3580,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>182</v>
       </c>
@@ -3547,7 +3591,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>184</v>
       </c>
@@ -3558,36 +3602,43 @@
         <v>185</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" s="4"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="177" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:FO177" xr:uid="{160D0982-3B7A-FF40-998A-3AAB5C705E76}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/ER/fields.xlsx
+++ b/docs/ER/fields.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hresheff/git/Shiba--Hackathon/docs/ER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41919374-8FDE-CD41-98BE-F447EBA14CA7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A706C0B-B802-AB4B-909D-C867F2AA64C6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$FO$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$FO$178</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="204">
   <si>
     <t>id</t>
   </si>
@@ -634,6 +634,9 @@
   </si>
   <si>
     <t>Outcome + Medical background</t>
+  </si>
+  <si>
+    <t>escort</t>
   </si>
 </sst>
 </file>
@@ -1063,17 +1066,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:FO177"/>
+  <dimension ref="A1:FO178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
@@ -1277,7 +1281,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:171" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:171" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>170</v>
       </c>
@@ -1318,7 +1322,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1333,7 +1337,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1348,7 +1352,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1368,7 +1372,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1385,61 +1389,61 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:171" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:171" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:171" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:171" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:171" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:171" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -1447,75 +1451,68 @@
     </row>
     <row r="16" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F17" s="5"/>
       <c r="G17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>174</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>199</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -1528,9 +1525,9 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -1543,9 +1540,9 @@
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -1558,9 +1555,9 @@
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -1573,9 +1570,9 @@
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -1590,55 +1587,52 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>2</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G27" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -1654,9 +1648,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -1674,44 +1668,39 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>174</v>
+        <v>1</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="E30">
+        <v>1</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
       <c r="F31" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="G31" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -1720,7 +1709,7 @@
         <v>174</v>
       </c>
       <c r="D32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1732,62 +1721,67 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
       <c r="F33" s="5" t="s">
         <v>200</v>
       </c>
+      <c r="G33" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="F34" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G36" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
@@ -1803,208 +1797,206 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
       </c>
       <c r="C38" s="4"/>
+      <c r="E38">
+        <v>2</v>
+      </c>
       <c r="F38" s="5" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>174</v>
+      <c r="C39" s="4"/>
+      <c r="F39" s="5" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
       </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="1">
-        <v>0</v>
-      </c>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
-        <v>200</v>
-      </c>
-      <c r="G43" t="s">
-        <v>193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>200</v>
+      </c>
+      <c r="G44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="1">
-        <v>0</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="B45" s="1">
-        <v>1</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="G45" t="s">
-        <v>193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G46" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="1">
-        <v>0</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="B47" s="1">
-        <v>1</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G47" t="s">
-        <v>193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="1">
-        <v>0</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="B49" s="1">
-        <v>1</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G49" t="s">
-        <v>193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G50" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="1">
-        <v>0</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="1">
-        <v>1</v>
-      </c>
-      <c r="C51" s="4" t="s">
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E51">
+      <c r="E52">
         <v>2</v>
-      </c>
-      <c r="F51" t="s">
-        <v>201</v>
-      </c>
-      <c r="G51" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="1">
-        <v>1</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>201</v>
@@ -2013,9 +2005,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="1">
         <v>1</v>
@@ -2026,16 +2018,16 @@
       <c r="E53">
         <v>1</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>200</v>
+      <c r="F53" t="s">
+        <v>201</v>
       </c>
       <c r="G53" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="1">
         <v>1</v>
@@ -2053,9 +2045,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" s="1">
         <v>1</v>
@@ -2073,9 +2065,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" s="1">
         <v>1</v>
@@ -2084,18 +2076,18 @@
         <v>179</v>
       </c>
       <c r="E56">
-        <v>2</v>
-      </c>
-      <c r="F56" t="s">
-        <v>201</v>
+        <v>1</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="G56" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="1">
         <v>1</v>
@@ -2104,18 +2096,18 @@
         <v>179</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G57" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="1">
         <v>1</v>
@@ -2126,16 +2118,16 @@
       <c r="E58">
         <v>1</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" t="s">
         <v>200</v>
       </c>
       <c r="G58" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" s="1">
         <v>1</v>
@@ -2153,29 +2145,29 @@
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G60" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B60" s="1">
-        <v>1</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60" t="s">
-        <v>201</v>
-      </c>
-      <c r="G60" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
@@ -2186,7 +2178,7 @@
       <c r="E61">
         <v>1</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" t="s">
         <v>201</v>
       </c>
       <c r="G61" t="s">
@@ -2195,283 +2187,291 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G62" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="1">
-        <v>0</v>
-      </c>
-      <c r="C62" s="4"/>
-    </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="B63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" s="4"/>
-      <c r="E63">
-        <v>2</v>
-      </c>
-      <c r="F63" t="s">
-        <v>197</v>
-      </c>
-      <c r="G63" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>197</v>
+      </c>
+      <c r="G64" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B64" s="1">
-        <v>0</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="F64" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="B65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" s="4"/>
-      <c r="E65">
-        <v>2</v>
-      </c>
       <c r="F65" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G65" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" s="4"/>
+      <c r="E66">
+        <v>2</v>
+      </c>
       <c r="F66" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" s="4"/>
-      <c r="E67">
-        <v>2</v>
-      </c>
       <c r="F67" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G67" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" s="4"/>
+      <c r="E68">
+        <v>2</v>
+      </c>
       <c r="F68" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" s="4"/>
-      <c r="E69">
-        <v>2</v>
-      </c>
       <c r="F69" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G69" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" s="4"/>
+      <c r="E70">
+        <v>2</v>
+      </c>
       <c r="F70" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" s="4"/>
-      <c r="E71">
-        <v>2</v>
-      </c>
       <c r="F71" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G71" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" s="4"/>
+      <c r="E72">
+        <v>2</v>
+      </c>
       <c r="F72" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" s="4"/>
-      <c r="E73">
-        <v>2</v>
-      </c>
       <c r="F73" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G73" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" s="4"/>
+      <c r="E74">
+        <v>2</v>
+      </c>
       <c r="F74" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" s="4"/>
-      <c r="E75">
-        <v>2</v>
-      </c>
       <c r="F75" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G75" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" s="4"/>
+      <c r="E76">
+        <v>2</v>
+      </c>
       <c r="F76" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" s="4">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0</v>
       </c>
       <c r="C77" s="4"/>
-      <c r="E77">
-        <v>2</v>
-      </c>
       <c r="F77" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G77" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="4">
+        <v>1</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G78" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="4">
-        <v>0</v>
-      </c>
-      <c r="C78" s="4"/>
-      <c r="F78" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="B79" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" s="4"/>
-      <c r="F79" s="4" t="s">
+      <c r="F79" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" s="4"/>
       <c r="F80" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B81" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" s="4"/>
       <c r="F81" s="4" t="s">
@@ -2480,22 +2480,22 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B82" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" s="4"/>
       <c r="F82" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" s="4"/>
       <c r="F83" s="4" t="s">
@@ -2504,22 +2504,22 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" s="4"/>
       <c r="F84" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" s="4"/>
       <c r="F85" s="4" t="s">
@@ -2528,22 +2528,22 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" s="4"/>
       <c r="F86" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" s="4"/>
       <c r="F87" s="4" t="s">
@@ -2552,22 +2552,22 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B88" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" s="4"/>
       <c r="F88" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B89" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" s="4"/>
       <c r="F89" s="4" t="s">
@@ -2576,22 +2576,22 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" s="4"/>
       <c r="F90" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" s="4"/>
       <c r="F91" s="4" t="s">
@@ -2600,22 +2600,22 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B92" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" s="4"/>
       <c r="F92" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B93" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" s="4"/>
       <c r="F93" s="4" t="s">
@@ -2624,22 +2624,22 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B94" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" s="4"/>
       <c r="F94" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B95" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" s="4"/>
       <c r="F95" s="4" t="s">
@@ -2648,22 +2648,22 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" s="4"/>
       <c r="F96" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B97" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" s="4"/>
       <c r="F97" s="4" t="s">
@@ -2672,22 +2672,22 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B98" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" s="4"/>
       <c r="F98" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B99" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" s="4"/>
       <c r="F99" s="4" t="s">
@@ -2696,22 +2696,22 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B100" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" s="4"/>
       <c r="F100" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" s="4"/>
       <c r="F101" s="4" t="s">
@@ -2720,22 +2720,22 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" s="4"/>
       <c r="F102" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B103" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" s="4"/>
       <c r="F103" s="4" t="s">
@@ -2744,22 +2744,22 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B104" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" s="4"/>
       <c r="F104" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B105" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" s="4"/>
       <c r="F105" s="4" t="s">
@@ -2768,22 +2768,22 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B106" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" s="4"/>
       <c r="F106" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B107" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" s="4"/>
       <c r="F107" s="4" t="s">
@@ -2792,22 +2792,22 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B108" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" s="4"/>
       <c r="F108" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B109" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" s="4"/>
       <c r="F109" s="4" t="s">
@@ -2816,22 +2816,22 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B110" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" s="4"/>
       <c r="F110" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B111" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" s="4"/>
       <c r="F111" s="4" t="s">
@@ -2840,22 +2840,22 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B112" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" s="4"/>
       <c r="F112" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B113" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" s="4"/>
       <c r="F113" s="4" t="s">
@@ -2864,22 +2864,22 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B114" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" s="4"/>
       <c r="F114" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B115" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" s="4"/>
       <c r="F115" s="4" t="s">
@@ -2888,22 +2888,22 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B116" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" s="4"/>
       <c r="F116" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B117" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" s="4"/>
       <c r="F117" s="4" t="s">
@@ -2912,22 +2912,22 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B118" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" s="4"/>
       <c r="F118" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B119" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" s="4"/>
       <c r="F119" s="4" t="s">
@@ -2936,22 +2936,22 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B120" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" s="4"/>
       <c r="F120" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B121" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" s="4"/>
       <c r="F121" s="4" t="s">
@@ -2960,22 +2960,22 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B122" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" s="4"/>
       <c r="F122" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B123" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" s="4"/>
       <c r="F123" s="4" t="s">
@@ -2984,22 +2984,22 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B124" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" s="4"/>
       <c r="F124" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B125" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" s="4"/>
       <c r="F125" s="4" t="s">
@@ -3008,22 +3008,22 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B126" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" s="4"/>
       <c r="F126" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B127" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" s="4"/>
       <c r="F127" s="4" t="s">
@@ -3032,22 +3032,22 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B128" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" s="4"/>
       <c r="F128" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B129" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" s="4"/>
       <c r="F129" s="4" t="s">
@@ -3056,22 +3056,22 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B130" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" s="4"/>
       <c r="F130" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B131" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" s="4"/>
       <c r="F131" s="4" t="s">
@@ -3080,22 +3080,22 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B132" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" s="4"/>
       <c r="F132" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B133" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" s="4"/>
       <c r="F133" s="4" t="s">
@@ -3104,22 +3104,22 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B134" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" s="4"/>
       <c r="F134" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B135" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" s="4"/>
       <c r="F135" s="4" t="s">
@@ -3128,22 +3128,22 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B136" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" s="4"/>
       <c r="F136" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B137" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" s="4"/>
       <c r="F137" s="4" t="s">
@@ -3152,22 +3152,22 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B138" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" s="4"/>
       <c r="F138" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B139" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" s="4"/>
       <c r="F139" s="4" t="s">
@@ -3176,22 +3176,22 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B140" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" s="4"/>
       <c r="F140" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B141" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" s="4"/>
       <c r="F141" s="4" t="s">
@@ -3200,22 +3200,22 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B142" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" s="4"/>
       <c r="F142" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B143" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" s="4"/>
       <c r="F143" s="4" t="s">
@@ -3224,22 +3224,22 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B144" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" s="4"/>
       <c r="F144" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B145" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" s="4"/>
       <c r="F145" s="4" t="s">
@@ -3248,22 +3248,22 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B146" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" s="4"/>
       <c r="F146" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B147" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" s="4"/>
       <c r="F147" s="4" t="s">
@@ -3272,22 +3272,22 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B148" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" s="4"/>
       <c r="F148" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B149" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" s="4"/>
       <c r="F149" s="4" t="s">
@@ -3296,22 +3296,22 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B150" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" s="4"/>
       <c r="F150" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B151" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" s="4"/>
       <c r="F151" s="4" t="s">
@@ -3320,22 +3320,22 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B152" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" s="4"/>
       <c r="F152" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B153" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" s="4"/>
       <c r="F153" s="4" t="s">
@@ -3344,22 +3344,22 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B154" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" s="4"/>
       <c r="F154" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B155" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" s="4"/>
       <c r="F155" s="4" t="s">
@@ -3368,22 +3368,22 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B156" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" s="4"/>
       <c r="F156" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B157" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" s="4"/>
       <c r="F157" s="4" t="s">
@@ -3392,22 +3392,22 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B158" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" s="4"/>
       <c r="F158" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B159" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" s="4"/>
       <c r="F159" s="4" t="s">
@@ -3416,22 +3416,22 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B160" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" s="4"/>
       <c r="F160" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B161" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" s="4"/>
       <c r="F161" s="4" t="s">
@@ -3440,22 +3440,22 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B162" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" s="4"/>
       <c r="F162" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B163" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" s="4"/>
       <c r="F163" s="4" t="s">
@@ -3464,22 +3464,22 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B164" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" s="4"/>
       <c r="F164" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B165" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" s="4"/>
       <c r="F165" s="4" t="s">
@@ -3488,22 +3488,22 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B166" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" s="4"/>
       <c r="F166" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B167" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" s="4"/>
       <c r="F167" s="4" t="s">
@@ -3512,22 +3512,22 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B168" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" s="4"/>
       <c r="F168" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B169" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" s="4"/>
       <c r="F169" s="4" t="s">
@@ -3536,86 +3536,92 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B170" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" s="4"/>
       <c r="F170" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B171" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" s="4"/>
       <c r="F171" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="6" t="s">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B172" s="4">
+        <v>1</v>
+      </c>
+      <c r="C172" s="4"/>
+      <c r="F172" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B172" s="4">
-        <v>1</v>
-      </c>
-      <c r="C172" t="s">
+      <c r="B173" s="4">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="6" t="s">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B173" s="4">
-        <v>1</v>
-      </c>
-      <c r="C173" t="s">
+      <c r="B174" s="4">
+        <v>1</v>
+      </c>
+      <c r="C174" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="6" t="s">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B174" s="4">
-        <v>1</v>
-      </c>
-      <c r="C174" t="s">
+      <c r="B175" s="4">
+        <v>1</v>
+      </c>
+      <c r="C175" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="6" t="s">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B175" s="4">
-        <v>1</v>
-      </c>
-      <c r="C175" t="s">
+      <c r="B176" s="4">
+        <v>1</v>
+      </c>
+      <c r="C176" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="4"/>
-    </row>
-    <row r="177" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B177" s="4"/>
     </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B178" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:FO177" xr:uid="{160D0982-3B7A-FF40-998A-3AAB5C705E76}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:FO178" xr:uid="{160D0982-3B7A-FF40-998A-3AAB5C705E76}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
